--- a/SourceDataTables/FigS16.xlsx
+++ b/SourceDataTables/FigS16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
   <si>
     <t>S16_xdata</t>
   </si>
@@ -75,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -85,14 +85,34 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,46 +142,46 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
     </row>

--- a/SourceDataTables/FigS16.xlsx
+++ b/SourceDataTables/FigS16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
   <si>
     <t>S16_xdata</t>
   </si>
@@ -75,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -95,11 +95,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -113,6 +115,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,46 +146,46 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
     </row>

--- a/SourceDataTables/FigS16.xlsx
+++ b/SourceDataTables/FigS16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>S16_xdata</t>
   </si>
@@ -75,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -85,38 +85,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,52 +122,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.064886504116894991</v>
+        <v>-0.063745853010799436</v>
       </c>
       <c r="B2">
         <v>0.51973293677155707</v>
@@ -235,7 +211,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.1937781020535542</v>
+        <v>-0.19286554580897597</v>
       </c>
       <c r="B3">
         <v>0.45358743673653773</v>
@@ -279,7 +255,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.17181713213293645</v>
+        <v>0.17319921595921856</v>
       </c>
       <c r="B4">
         <v>0.52332789092803689</v>
@@ -323,7 +299,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.87759382135253394</v>
+        <v>0.87858033163980442</v>
       </c>
       <c r="B5">
         <v>0.27210514706323036</v>
@@ -367,7 +343,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>1.2007530722910171</v>
+        <v>1.2004853732444778</v>
       </c>
       <c r="B6">
         <v>0.34979067526076835</v>
@@ -411,7 +387,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.24445646690464296</v>
+        <v>-0.24365411094172904</v>
       </c>
       <c r="B7">
         <v>0.59467732034284959</v>
@@ -455,7 +431,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.10024405699534733</v>
+        <v>-0.099252317708672086</v>
       </c>
       <c r="B8">
         <v>0.6346189410492149</v>
@@ -499,7 +475,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.16558351737354562</v>
+        <v>0.16695050854388935</v>
       </c>
       <c r="B9">
         <v>0.74255135676280426</v>
@@ -543,7 +519,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.069959514293634645</v>
+        <v>0.071264646131254175</v>
       </c>
       <c r="B10">
         <v>0.5773874108697854</v>
@@ -587,7 +563,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.3623767571702966</v>
+        <v>0.36374545118323398</v>
       </c>
       <c r="B11">
         <v>0.68843294825435675</v>
@@ -631,7 +607,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.65892407367830452</v>
+        <v>0.65944517788254731</v>
       </c>
       <c r="B12">
         <v>0.40306619376228675</v>
@@ -675,7 +651,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.31527279602669661</v>
+        <v>0.31664226582669158</v>
       </c>
       <c r="B13">
         <v>0.68346398719990187</v>
@@ -719,7 +695,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>-0.2369233430828839</v>
+        <v>-0.23604793224810083</v>
       </c>
       <c r="B14">
         <v>0.67659971010990627</v>
@@ -763,7 +739,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.25582566887295621</v>
+        <v>-0.25504821651002407</v>
       </c>
       <c r="B15">
         <v>0.40629420189285465</v>
@@ -807,7 +783,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.11105510618940731</v>
+        <v>-0.10999932119640986</v>
       </c>
       <c r="B16">
         <v>0.66762207432107612</v>
@@ -851,7 +827,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.37385623767031245</v>
+        <v>0.37519645942576041</v>
       </c>
       <c r="B17">
         <v>0.73186871747380677</v>
@@ -895,7 +871,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.068772149286058876</v>
+        <v>0.069983675450827204</v>
       </c>
       <c r="B18">
         <v>0.80947313437590729</v>
@@ -939,7 +915,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.050892902447129615</v>
+        <v>0.052144444310580809</v>
       </c>
       <c r="B19">
         <v>0.73843358891909239</v>
@@ -983,7 +959,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.42418681405652986</v>
+        <v>0.42554967288386653</v>
       </c>
       <c r="B20">
         <v>0.69781204736743407</v>
@@ -1027,7 +1003,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.26461380428423015</v>
+        <v>0.26490498368293225</v>
       </c>
       <c r="B21">
         <v>0.39749172224421364</v>
@@ -1071,7 +1047,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.20237835733991083</v>
+        <v>0.20364991199353352</v>
       </c>
       <c r="B22">
         <v>0.81661831798707507</v>
@@ -1115,7 +1091,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>-0.2280326530199967</v>
+        <v>-0.22712043250744662</v>
       </c>
       <c r="B23">
         <v>0.41067765058973166</v>
@@ -1159,7 +1135,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>-0.11771285516256211</v>
+        <v>-0.11667621441990894</v>
       </c>
       <c r="B24">
         <v>0.67034012110068886</v>
@@ -1203,7 +1179,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.32943920272573912</v>
+        <v>-0.32842008509295334</v>
       </c>
       <c r="B25">
         <v>0.6011733598487925</v>
@@ -1247,7 +1223,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.11917347301883294</v>
+        <v>0.12042525776797776</v>
       </c>
       <c r="B26">
         <v>0.4809282286918925</v>
@@ -1291,7 +1267,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.002430354581744894</v>
+        <v>0.003582129627176479</v>
       </c>
       <c r="B27">
         <v>0.78474110858193757</v>
@@ -1335,7 +1311,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.18446836408236783</v>
+        <v>0.18570933676769322</v>
       </c>
       <c r="B28">
         <v>0.84459638103517787</v>
@@ -1379,7 +1355,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.67889653904137348</v>
+        <v>0.6801638307878981</v>
       </c>
       <c r="B29">
         <v>0.79317293475516404</v>
@@ -1423,7 +1399,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.099528040005234214</v>
+        <v>0.10072520893555087</v>
       </c>
       <c r="B30">
         <v>0.95625232972673924</v>
@@ -1467,7 +1443,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.45010638914334977</v>
+        <v>0.45142776895230974</v>
       </c>
       <c r="B31">
         <v>0.67192951329184081</v>
@@ -1511,7 +1487,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.068984551528557869</v>
+        <v>0.070192470260674211</v>
       </c>
       <c r="B32">
         <v>1.1723343155928105</v>
@@ -1555,7 +1531,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.2183975161805386</v>
+        <v>0.21962907385090943</v>
       </c>
       <c r="B33">
         <v>0.84217155452232206</v>
@@ -1599,7 +1575,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.14911499821286031</v>
+        <v>0.15028868466323483</v>
       </c>
       <c r="B34">
         <v>0.92580935857244318</v>
@@ -1643,7 +1619,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.41718931508954288</v>
+        <v>0.41853639364007555</v>
       </c>
       <c r="B35">
         <v>0.35534284009788653</v>
@@ -1687,7 +1663,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>-0.10715432739554447</v>
+        <v>-0.10606757460706825</v>
       </c>
       <c r="B36">
         <v>0.53301143830205189</v>
@@ -1731,7 +1707,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.10637301266458532</v>
+        <v>0.1075935282234089</v>
       </c>
       <c r="B37">
         <v>0.63404279566928146</v>
@@ -1775,7 +1751,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.74584851309042988</v>
+        <v>0.74701540686844159</v>
       </c>
       <c r="B38">
         <v>0.91313754209765685</v>
@@ -1819,7 +1795,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>-1.780233541528111</v>
+        <v>-1.7791449269666129</v>
       </c>
       <c r="B39">
         <v>0.74515414362152421</v>
@@ -1863,7 +1839,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.18859968476089595</v>
+        <v>0.18981144445091361</v>
       </c>
       <c r="B40">
         <v>1.0955712681406</v>
@@ -1907,7 +1883,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>-1.9605577835455616</v>
+        <v>-1.9605897960025236</v>
       </c>
       <c r="B41">
         <v>0.80839018147807939</v>
@@ -1951,7 +1927,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.16721325560687375</v>
+        <v>0.16838042685164678</v>
       </c>
       <c r="B42">
         <v>0.96058003787582502</v>
@@ -1995,7 +1971,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.37021324132371691</v>
+        <v>0.37148726420548051</v>
       </c>
       <c r="B43">
         <v>0.92148745808578636</v>
@@ -2039,7 +2015,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.32851487145758496</v>
+        <v>0.32982773686259037</v>
       </c>
       <c r="B44">
         <v>0.73687482819282746</v>
@@ -2083,7 +2059,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.16323351716407578</v>
+        <v>0.16444823404584422</v>
       </c>
       <c r="B45">
         <v>1.6999925493377528</v>
@@ -2127,7 +2103,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.015706650661967563</v>
+        <v>0.016904668472400863</v>
       </c>
       <c r="B46">
         <v>0.60910137601917091</v>
@@ -2171,7 +2147,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.27635702697951825</v>
+        <v>-0.27523661506164521</v>
       </c>
       <c r="B47">
         <v>0.84875793169978209</v>
@@ -2215,7 +2191,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.30703088715050358</v>
+        <v>0.30825547797694058</v>
       </c>
       <c r="B48">
         <v>0.71238231035890476</v>
@@ -2259,7 +2235,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>-1.3664766911340276</v>
+        <v>-1.3652461180408257</v>
       </c>
       <c r="B49">
         <v>0.89478703029728079</v>
@@ -2303,7 +2279,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.1962403680063852</v>
+        <v>0.19742353103516835</v>
       </c>
       <c r="B50">
         <v>1.6578564824837663</v>
@@ -2347,7 +2323,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.51752372315252149</v>
+        <v>0.51860175129837738</v>
       </c>
       <c r="B51">
         <v>0.40810348824660259</v>
@@ -2391,7 +2367,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>-1.8409103468040233</v>
+        <v>-1.8410003587739874</v>
       </c>
       <c r="B52">
         <v>0.76223950348939418</v>
@@ -2435,7 +2411,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.35297469120594549</v>
+        <v>0.35409556370229361</v>
       </c>
       <c r="B53">
         <v>0.72259243731943579</v>
@@ -2479,7 +2455,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.1852398779791011</v>
+        <v>0.18640339885892404</v>
       </c>
       <c r="B54">
         <v>1.1957555462549849</v>
@@ -2523,7 +2499,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.41051529807874881</v>
+        <v>0.41148319273065365</v>
       </c>
       <c r="B55">
         <v>0.85317548531658793</v>
@@ -2567,7 +2543,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.23749693145638243</v>
+        <v>0.23866911193687232</v>
       </c>
       <c r="B56">
         <v>0.9978807764668618</v>
@@ -2611,7 +2587,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>-2.2487832601470461</v>
+        <v>-2.2483433837065476</v>
       </c>
       <c r="B57">
         <v>0.82752086879104692</v>
@@ -2655,7 +2631,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.45212853402984304</v>
+        <v>0.45331230714224252</v>
       </c>
       <c r="B58">
         <v>0.9247375557588976</v>
@@ -2699,7 +2675,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.23629915632746634</v>
+        <v>0.23749296228029237</v>
       </c>
       <c r="B59">
         <v>1.4617363120828355</v>
@@ -2743,7 +2719,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.50758884681383776</v>
+        <v>0.50874612987812651</v>
       </c>
       <c r="B60">
         <v>0.96724603323771441</v>
@@ -2787,7 +2763,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.49430511519618336</v>
+        <v>0.49540611321459882</v>
       </c>
       <c r="B61">
         <v>1.1493388662467132</v>
@@ -2831,7 +2807,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.21318089982262278</v>
+        <v>0.21432500056272039</v>
       </c>
       <c r="B62">
         <v>1.2880855956110069</v>
@@ -2875,7 +2851,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>-2.1036805894822708</v>
+        <v>-2.1031894497912544</v>
       </c>
       <c r="B63">
         <v>0.92752729087752084</v>
@@ -2919,7 +2895,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>-2.2287378956849637</v>
+        <v>-2.2286618043412227</v>
       </c>
       <c r="B64">
         <v>0.94941951323405771</v>
@@ -2963,7 +2939,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.22518178791004373</v>
+        <v>0.22625803135494427</v>
       </c>
       <c r="B65">
         <v>0.83055831951094483</v>
@@ -3007,7 +2983,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.42910765538114148</v>
+        <v>0.43040701895579386</v>
       </c>
       <c r="B66">
         <v>0.70142018614757451</v>
@@ -3051,7 +3027,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>-1.4142342239106367</v>
+        <v>-1.4147277058592564</v>
       </c>
       <c r="B67">
         <v>0.97678281863530481</v>
@@ -3095,7 +3071,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.25728640130655606</v>
+        <v>0.25839362346261907</v>
       </c>
       <c r="B68">
         <v>1.139551772593614</v>
@@ -3139,7 +3115,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>-2.0575792719958645</v>
+        <v>-2.0575421488902976</v>
       </c>
       <c r="B69">
         <v>0.67425037945362121</v>
@@ -3183,7 +3159,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.31357746132483494</v>
+        <v>0.31473598457352403</v>
       </c>
       <c r="B70">
         <v>1.5181637722281351</v>
@@ -3227,7 +3203,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.41968975052256197</v>
+        <v>0.42090554023860127</v>
       </c>
       <c r="B71">
         <v>0.61228572004323401</v>
@@ -3271,7 +3247,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>-2.2009755047631256</v>
+        <v>-2.2002138395028612</v>
       </c>
       <c r="B72">
         <v>0.91666741040017874</v>
@@ -3315,7 +3291,7 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.234830209086167</v>
+        <v>0.23595456331839987</v>
       </c>
       <c r="B73">
         <v>0.76920396151642001</v>
@@ -3359,7 +3335,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>-2.2785824366333767</v>
+        <v>-2.2785753724565581</v>
       </c>
       <c r="B74">
         <v>0.85586573972171454</v>
@@ -3403,7 +3379,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.5846185436954342</v>
+        <v>0.58558799587934063</v>
       </c>
       <c r="B75">
         <v>0.92544047821552378</v>
@@ -3447,7 +3423,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.25026110252918232</v>
+        <v>0.25141828104704228</v>
       </c>
       <c r="B76">
         <v>0.91257753308492762</v>
@@ -3491,7 +3467,7 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.6966338611484808</v>
+        <v>0.69728215775174307</v>
       </c>
       <c r="B77">
         <v>0.83433574989822457</v>
@@ -3535,7 +3511,7 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.56946380495489768</v>
+        <v>0.57050998339517389</v>
       </c>
       <c r="B78">
         <v>0.36039679496149929</v>
@@ -3579,7 +3555,7 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.42787252307634555</v>
+        <v>0.42897861812899507</v>
       </c>
       <c r="B79">
         <v>0.62894146344933843</v>
@@ -3623,7 +3599,7 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.53901952491642569</v>
+        <v>0.54008982286800056</v>
       </c>
       <c r="B80">
         <v>1.0595599428176881</v>
@@ -3667,7 +3643,7 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.25118387268168102</v>
+        <v>0.2523280167178234</v>
       </c>
       <c r="B81">
         <v>1.2512419787750029</v>
@@ -3711,7 +3687,7 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.32006642353591436</v>
+        <v>0.32115360605572923</v>
       </c>
       <c r="B82">
         <v>1.0139881571519722</v>
@@ -3755,7 +3731,7 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>-2.3335555929035761</v>
+        <v>-2.3334798355897401</v>
       </c>
       <c r="B83">
         <v>0.99152609285401416</v>
@@ -3799,7 +3775,7 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>-2.0382691471366967</v>
+        <v>-2.0382186779356117</v>
       </c>
       <c r="B84">
         <v>0.99572323251402739</v>
@@ -3843,7 +3819,7 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>-2.3079957031858211</v>
+        <v>-2.3078810886149825</v>
       </c>
       <c r="B85">
         <v>1.0604828919619875</v>
@@ -3887,7 +3863,7 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>-0.50026456586134971</v>
+        <v>-0.50156592873449901</v>
       </c>
       <c r="B86">
         <v>0.81055008654709859</v>
@@ -3931,7 +3907,7 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>-2.2689779674018062</v>
+        <v>-2.2689790722172485</v>
       </c>
       <c r="B87">
         <v>1.043958645092733</v>
@@ -3975,7 +3951,7 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.317332079309813</v>
+        <v>0.31846451583059576</v>
       </c>
       <c r="B88">
         <v>0.98553799046203494</v>
@@ -4019,7 +3995,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.67519431346670022</v>
+        <v>0.67620356905516354</v>
       </c>
       <c r="B89">
         <v>1.0244499113717642</v>
@@ -4063,7 +4039,7 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.43688752784691953</v>
+        <v>0.4381497299225231</v>
       </c>
       <c r="B90">
         <v>0.81862470529895548</v>
@@ -4107,7 +4083,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>-1.9764060679647817</v>
+        <v>-1.9765876020084874</v>
       </c>
       <c r="B91">
         <v>0.67077000495443984</v>
@@ -4151,7 +4127,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.34677202215860164</v>
+        <v>0.34785323268551999</v>
       </c>
       <c r="B92">
         <v>0.70277611510474469</v>
@@ -4195,7 +4171,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.28768739963616424</v>
+        <v>0.28881140737407646</v>
       </c>
       <c r="B93">
         <v>0.99668936129612262</v>
@@ -4239,7 +4215,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.62065751289678683</v>
+        <v>0.6215284768899435</v>
       </c>
       <c r="B94">
         <v>0.8771253717385612</v>
@@ -4283,7 +4259,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.86860611060005721</v>
+        <v>0.86903672002730437</v>
       </c>
       <c r="B95">
         <v>0.66491155834251658</v>
@@ -4327,7 +4303,7 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.46885600941354605</v>
+        <v>0.46995270244553988</v>
       </c>
       <c r="B96">
         <v>0.96296115417993777</v>
@@ -4371,7 +4347,7 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>1.2316711757731051</v>
+        <v>1.2305439456666623</v>
       </c>
       <c r="B97">
         <v>0.6117511916431041</v>
@@ -4415,7 +4391,7 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>-2.3476230534522036</v>
+        <v>-2.3476077314712702</v>
       </c>
       <c r="B98">
         <v>1.0029314326291734</v>
@@ -4459,7 +4435,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.85738404821854985</v>
+        <v>0.85797719315323873</v>
       </c>
       <c r="B99">
         <v>0.3720037847820763</v>
@@ -4503,7 +4479,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.36156337160162866</v>
+        <v>0.3627007805016807</v>
       </c>
       <c r="B100">
         <v>1.1403598676668867</v>
@@ -4547,7 +4523,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>-2.1620405400309322</v>
+        <v>-2.1620853837733551</v>
       </c>
       <c r="B101">
         <v>1.0790074270887253</v>
@@ -4591,7 +4567,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>-2.2144415709537477</v>
+        <v>-2.2145252771152379</v>
       </c>
       <c r="B102">
         <v>1.1055368730247346</v>
@@ -4635,7 +4611,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.69439711570883655</v>
+        <v>0.69529187877499765</v>
       </c>
       <c r="B103">
         <v>0.58032610944416974</v>
@@ -4679,7 +4655,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>1.1489179863416354</v>
+        <v>1.14774841096446</v>
       </c>
       <c r="B104">
         <v>0.26128992305623255</v>
@@ -4723,7 +4699,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>-2.0933766758645653</v>
+        <v>-2.0935113607251341</v>
       </c>
       <c r="B105">
         <v>1.0363006548553906</v>
@@ -4767,7 +4743,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>-2.2299997089011208</v>
+        <v>-2.2300557509897807</v>
       </c>
       <c r="B106">
         <v>1.1676470470428466</v>
@@ -4811,7 +4787,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.80564776385249226</v>
+        <v>0.80503219984978724</v>
       </c>
       <c r="B107">
         <v>0.42203575518440839</v>
@@ -4855,7 +4831,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.69833106130719813</v>
+        <v>0.69948023685014837</v>
       </c>
       <c r="B108">
         <v>1.1030784611191069</v>
@@ -4899,7 +4875,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.36504800371608365</v>
+        <v>0.36613292391084473</v>
       </c>
       <c r="B109">
         <v>0.83718271561210622</v>
@@ -4943,7 +4919,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.31395751789525417</v>
+        <v>0.31509773778227174</v>
       </c>
       <c r="B110">
         <v>0.79204666763792853</v>
@@ -4987,7 +4963,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.65327867548532759</v>
+        <v>0.65422381129209406</v>
       </c>
       <c r="B111">
         <v>0.99896884785440865</v>
@@ -5031,7 +5007,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.73008384500576173</v>
+        <v>0.73068806271076892</v>
       </c>
       <c r="B112">
         <v>0.87294233150369538</v>
@@ -5075,7 +5051,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>-0.75045292456799806</v>
+        <v>-0.75148873065687039</v>
       </c>
       <c r="B113">
         <v>0.91591099582946123</v>
@@ -5119,7 +5095,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.4785136790111344</v>
+        <v>0.47956376874617901</v>
       </c>
       <c r="B114">
         <v>1.0941274549069475</v>
@@ -5163,7 +5139,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.46141098898775296</v>
+        <v>0.46265106175724086</v>
       </c>
       <c r="B115">
         <v>0.83939467339680107</v>
@@ -5207,7 +5183,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>-1.6336040793332751</v>
+        <v>-1.634069589635978</v>
       </c>
       <c r="B116">
         <v>0.80528452782271365</v>
@@ -5251,7 +5227,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>-2.2420096973163957</v>
+        <v>-2.2420948563773142</v>
       </c>
       <c r="B117">
         <v>1.2023600524333866</v>
@@ -5295,7 +5271,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.43891221158222582</v>
+        <v>0.43999131068073905</v>
       </c>
       <c r="B118">
         <v>1.0502075630635139</v>
@@ -5339,7 +5315,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>-1.8321232557214358</v>
+        <v>-1.8324335537496728</v>
       </c>
       <c r="B119">
         <v>1.1519921278906247</v>
@@ -5383,7 +5359,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.53129572044274143</v>
+        <v>0.53235259968340265</v>
       </c>
       <c r="B120">
         <v>0.74588199502737951</v>
@@ -5427,7 +5403,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>-2.2812574927461564</v>
+        <v>-2.2813218855764177</v>
       </c>
       <c r="B121">
         <v>0.96963838741933694</v>
@@ -5471,7 +5447,7 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>-0.8707964203914853</v>
+        <v>-0.87179441835415783</v>
       </c>
       <c r="B122">
         <v>0.59774258428164273</v>
@@ -5515,7 +5491,7 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.80666400103250879</v>
+        <v>0.80672040912423204</v>
       </c>
       <c r="B123">
         <v>0.4559109913690515</v>
@@ -5559,7 +5535,7 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.39216820084205428</v>
+        <v>0.39325451231939729</v>
       </c>
       <c r="B124">
         <v>0.91308690733220199</v>
@@ -5603,7 +5579,7 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.31848036920923489</v>
+        <v>0.3167820274572295</v>
       </c>
       <c r="B125">
         <v>0.60710985839360221</v>
@@ -5647,7 +5623,7 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>-2.0276555241353065</v>
+        <v>-2.0278188072214842</v>
       </c>
       <c r="B126">
         <v>1.2260234602458815</v>
@@ -5691,7 +5667,7 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.61253304752601401</v>
+        <v>0.61343252731136344</v>
       </c>
       <c r="B127">
         <v>0.91562124558108937</v>
@@ -5735,7 +5711,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.78445699699715521</v>
+        <v>0.78515097526693356</v>
       </c>
       <c r="B128">
         <v>0.65843370647692101</v>
@@ -5779,7 +5755,7 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.72356495353511507</v>
+        <v>0.72461018896884932</v>
       </c>
       <c r="B129">
         <v>1.1584425192024257</v>
@@ -5823,7 +5799,7 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>1.0056592303793641</v>
+        <v>1.0050461704938003</v>
       </c>
       <c r="B130">
         <v>0.84728969999416148</v>
@@ -5867,7 +5843,7 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.18869975826819804</v>
+        <v>0.18742053251002078</v>
       </c>
       <c r="B131">
         <v>0.90398710675584448</v>
@@ -5911,7 +5887,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>-1.8783586397667631</v>
+        <v>-1.8786160051557985</v>
       </c>
       <c r="B132">
         <v>1.241222646473326</v>
@@ -5955,7 +5931,7 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.54328314871833805</v>
+        <v>0.54426491933647647</v>
       </c>
       <c r="B133">
         <v>1.0770518535350655</v>
@@ -5999,7 +5975,7 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>-2.0598120626057321</v>
+        <v>-2.0599932203674509</v>
       </c>
       <c r="B134">
         <v>1.0974402672776551</v>
@@ -6043,7 +6019,7 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.7352133562037424</v>
+        <v>0.73572177497386149</v>
       </c>
       <c r="B135">
         <v>0.86942357066812548</v>
@@ -6087,7 +6063,7 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.58154428586901052</v>
+        <v>0.58253760445788105</v>
       </c>
       <c r="B136">
         <v>0.86947998376959135</v>
@@ -6131,7 +6107,7 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.7650979958878088</v>
+        <v>0.76489704682415471</v>
       </c>
       <c r="B137">
         <v>0.96508474047351656</v>
@@ -6175,7 +6151,7 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.70549549497412856</v>
+        <v>0.70502332863574502</v>
       </c>
       <c r="B138">
         <v>0.78191525304774379</v>
@@ -6219,7 +6195,7 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.63115388080650514</v>
+        <v>0.63227087506826707</v>
       </c>
       <c r="B139">
         <v>1.011020103834833</v>
@@ -6263,7 +6239,7 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.76305247808236565</v>
+        <v>0.76371723660175883</v>
       </c>
       <c r="B140">
         <v>0.92699729195753167</v>
@@ -6307,7 +6283,7 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>-0.78096617181758765</v>
+        <v>-0.78200564630037273</v>
       </c>
       <c r="B141">
         <v>1.2085444944861687</v>
@@ -6351,7 +6327,7 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>-1.428440305822831</v>
+        <v>-1.4288380661592612</v>
       </c>
       <c r="B142">
         <v>1.0366523089527173</v>
@@ -6395,7 +6371,7 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>-1.9011763531480599</v>
+        <v>-1.9014865302241464</v>
       </c>
       <c r="B143">
         <v>1.368021688858668</v>
@@ -6439,7 +6415,7 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>-1.7120170833061787</v>
+        <v>-1.7124168781942926</v>
       </c>
       <c r="B144">
         <v>1.1486456331453825</v>
@@ -6483,7 +6459,7 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>-2.0879019025325358</v>
+        <v>-2.0880839873012196</v>
       </c>
       <c r="B145">
         <v>1.0868898632010695</v>
@@ -6527,7 +6503,7 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.51201083131401137</v>
+        <v>0.5130135813827752</v>
       </c>
       <c r="B146">
         <v>0.76207226663609084</v>
@@ -6571,7 +6547,7 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.641064163259085</v>
+        <v>0.64191019798399396</v>
       </c>
       <c r="B147">
         <v>1.0495127326223106</v>
@@ -6615,7 +6591,7 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.73903338536677188</v>
+        <v>0.73981604249371014</v>
       </c>
       <c r="B148">
         <v>1.0870860975329615</v>
@@ -6659,7 +6635,7 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.78272022833559862</v>
+        <v>0.78268972815302673</v>
       </c>
       <c r="B149">
         <v>0.80774451716559992</v>
@@ -6703,7 +6679,7 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.83553190080719919</v>
+        <v>0.83502481068191414</v>
       </c>
       <c r="B150">
         <v>0.93875784602844048</v>
@@ -6747,7 +6723,7 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.60110129942972867</v>
+        <v>0.60201705407810513</v>
       </c>
       <c r="B151">
         <v>0.81242675772642836</v>
@@ -6791,7 +6767,7 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>-2.0267387294166346</v>
+        <v>-2.0269450814789698</v>
       </c>
       <c r="B152">
         <v>1.0655747682221828</v>
@@ -6835,7 +6811,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>-0.43437797944961315</v>
+        <v>-0.43557307459281153</v>
       </c>
       <c r="B153">
         <v>0.97471121674889971</v>
@@ -6879,7 +6855,7 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.80003382161480996</v>
+        <v>0.80033105627955892</v>
       </c>
       <c r="B154">
         <v>0.92711859398673169</v>
@@ -6923,7 +6899,7 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.21028660699483789</v>
+        <v>0.20870540152886236</v>
       </c>
       <c r="B155">
         <v>0.81553776138506762</v>
@@ -6967,7 +6943,7 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>-1.6428528687225836</v>
+        <v>-1.6433349325254376</v>
       </c>
       <c r="B156">
         <v>1.0827142790663395</v>
@@ -7011,7 +6987,7 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.70986030138949052</v>
+        <v>0.71053739652181247</v>
       </c>
       <c r="B157">
         <v>0.85444029829796397</v>
@@ -7055,7 +7031,7 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.92762009371600973</v>
+        <v>0.92757435200433824</v>
       </c>
       <c r="B158">
         <v>0.9004112689655327</v>
@@ -7099,7 +7075,7 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>-1.6693061765796853</v>
+        <v>-1.6697693463510592</v>
       </c>
       <c r="B159">
         <v>1.1762761770698584</v>
@@ -7143,7 +7119,7 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.65779304344517953</v>
+        <v>0.65853456414662326</v>
       </c>
       <c r="B160">
         <v>0.98134062935452937</v>
@@ -7187,7 +7163,7 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.77985753937918867</v>
+        <v>0.780363708407114</v>
       </c>
       <c r="B161">
         <v>0.82475095468608639</v>
@@ -7231,7 +7207,7 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>-1.0939597153174705</v>
+        <v>-1.0948236947198495</v>
       </c>
       <c r="B162">
         <v>1.2561822042012905</v>
@@ -7275,7 +7251,7 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.78589736432682256</v>
+        <v>0.78654313570270185</v>
       </c>
       <c r="B163">
         <v>0.99758462804566672</v>
@@ -7319,7 +7295,7 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.84572565738865668</v>
+        <v>0.84420539843291598</v>
       </c>
       <c r="B164">
         <v>1.0574011670324368</v>
@@ -7363,7 +7339,7 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>-1.8308393120024979</v>
+        <v>-1.8311784204815114</v>
       </c>
       <c r="B165">
         <v>0.96480328562419593</v>
@@ -7407,7 +7383,7 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>-1.2597474802903186</v>
+        <v>-1.2604664532808008</v>
       </c>
       <c r="B166">
         <v>1.1705965023616265</v>
@@ -7451,7 +7427,7 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.7301864064009036</v>
+        <v>0.72891457998359499</v>
       </c>
       <c r="B167">
         <v>0.72940816255543162</v>
@@ -7495,7 +7471,7 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.86825367346786186</v>
+        <v>0.86857872018885429</v>
       </c>
       <c r="B168">
         <v>0.98622503792439253</v>
@@ -7539,7 +7515,7 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.14148113240260188</v>
+        <v>0.14009751511280244</v>
       </c>
       <c r="B169">
         <v>1.0727352982209135</v>
@@ -7583,7 +7559,7 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.89908488213561177</v>
+        <v>0.89836779762636421</v>
       </c>
       <c r="B170">
         <v>1.04873808244323</v>
@@ -7627,7 +7603,7 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>-1.7160433899859666</v>
+        <v>-1.7164778043406246</v>
       </c>
       <c r="B171">
         <v>1.0607322025743331</v>
@@ -7671,7 +7647,7 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.84467757257034493</v>
+        <v>0.8446892544664345</v>
       </c>
       <c r="B172">
         <v>1.0415810118795066</v>
@@ -7715,7 +7691,7 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.68780844619623716</v>
+        <v>0.68846883753508048</v>
       </c>
       <c r="B173">
         <v>0.86206807129418672</v>
@@ -7759,7 +7735,7 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.72665198607736647</v>
+        <v>0.72718674755401458</v>
       </c>
       <c r="B174">
         <v>0.80282299371362753</v>
@@ -7803,7 +7779,7 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>-1.7291349449930038</v>
+        <v>-1.7295290113904009</v>
       </c>
       <c r="B175">
         <v>1.1152277801854489</v>
@@ -7847,7 +7823,7 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.8439632967711731</v>
+        <v>0.84367177761636036</v>
       </c>
       <c r="B176">
         <v>1.1052710315746854</v>
@@ -7891,7 +7867,7 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>-1.5047902651072076</v>
+        <v>-1.5053399921686199</v>
       </c>
       <c r="B177">
         <v>1.0008599389212691</v>
@@ -7935,7 +7911,7 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.2890045482900416</v>
+        <v>1.2872351028194982</v>
       </c>
       <c r="B178">
         <v>1.1131371144765343</v>
@@ -7979,7 +7955,7 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>-0.13533816750504621</v>
+        <v>-0.13682204267819204</v>
       </c>
       <c r="B179">
         <v>1.0493795989460746</v>
@@ -8023,7 +7999,7 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.92808466566975667</v>
+        <v>0.92788747736536836</v>
       </c>
       <c r="B180">
         <v>0.73587202151849473</v>
@@ -8067,7 +8043,7 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.96340804464829666</v>
+        <v>0.96255105279095843</v>
       </c>
       <c r="B181">
         <v>0.69608507881801518</v>
@@ -8111,7 +8087,7 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.74946326955466547</v>
+        <v>0.74737236653198935</v>
       </c>
       <c r="B182">
         <v>0.92046649387321</v>
@@ -8155,7 +8131,7 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.80320095996577079</v>
+        <v>0.80357239297615157</v>
       </c>
       <c r="B183">
         <v>0.86714400605703568</v>
@@ -8199,7 +8175,7 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>1.0278467701154048</v>
+        <v>1.0278447272146878</v>
       </c>
       <c r="B184">
         <v>0.77708113900011089</v>
@@ -8243,7 +8219,7 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>-1.3109270834892857</v>
+        <v>-1.3116504460294802</v>
       </c>
       <c r="B185">
         <v>0.92070511483377027</v>
@@ -8287,7 +8263,7 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.89692263070440836</v>
+        <v>0.8969902018654039</v>
       </c>
       <c r="B186">
         <v>0.78664981287655944</v>
@@ -8331,7 +8307,7 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.84580731382177698</v>
+        <v>0.84590866288637512</v>
       </c>
       <c r="B187">
         <v>0.65419787995420131</v>
@@ -8375,7 +8351,7 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.83529350464750518</v>
+        <v>0.83455598438299328</v>
       </c>
       <c r="B188">
         <v>1.1077942927753119</v>
@@ -8419,7 +8395,7 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>-1.4299842381489001</v>
+        <v>-1.4306663899452321</v>
       </c>
       <c r="B189">
         <v>1.279411569554755</v>
@@ -8463,7 +8439,7 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>-0.91581823573901389</v>
+        <v>-0.91676288466515188</v>
       </c>
       <c r="B190">
         <v>1.0382505319057367</v>
@@ -8507,7 +8483,7 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.91921288856061978</v>
+        <v>0.91904241658250818</v>
       </c>
       <c r="B191">
         <v>0.88332307798938792</v>
@@ -8551,7 +8527,7 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>-1.5190049865092377</v>
+        <v>-1.5195209014816562</v>
       </c>
       <c r="B192">
         <v>1.0585399208238619</v>
@@ -8595,7 +8571,7 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>-0.19522015881150559</v>
+        <v>-0.19631706450262143</v>
       </c>
       <c r="B193">
         <v>0.66931076426032587</v>
@@ -8639,7 +8615,7 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>1.008278218072558</v>
+        <v>1.0065571316011359</v>
       </c>
       <c r="B194">
         <v>1.1196035258539823</v>
@@ -8683,7 +8659,7 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.54359462971407657</v>
+        <v>0.54200364417389257</v>
       </c>
       <c r="B195">
         <v>1.2095757847209629</v>
@@ -8727,7 +8703,7 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.88582589456026262</v>
+        <v>0.88404119191280839</v>
       </c>
       <c r="B196">
         <v>0.81749782050790298</v>
@@ -8771,7 +8747,7 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.8231066103408381</v>
+        <v>0.82254737434115155</v>
       </c>
       <c r="B197">
         <v>0.78782549076161146</v>
@@ -8815,7 +8791,7 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>-1.4772391221490266</v>
+        <v>-1.4778201952755714</v>
       </c>
       <c r="B198">
         <v>0.9978473074734211</v>
@@ -8859,7 +8835,7 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.8982380137891246</v>
+        <v>0.89808660020971831</v>
       </c>
       <c r="B199">
         <v>0.82596750367941629</v>
@@ -8903,7 +8879,7 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>0.89940818765936659</v>
+        <v>0.89834767220247325</v>
       </c>
       <c r="B200">
         <v>0.84228458667303796</v>
@@ -8947,7 +8923,7 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.85769381798775024</v>
+        <v>0.85599091247682546</v>
       </c>
       <c r="B201">
         <v>1.0382010739499872</v>
@@ -8991,7 +8967,7 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.92947184075528122</v>
+        <v>0.92929844147985907</v>
       </c>
       <c r="B202">
         <v>0.83175851835144887</v>
@@ -9035,7 +9011,7 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>-1.0950142025182563</v>
+        <v>-1.0958382433578462</v>
       </c>
       <c r="B203">
         <v>1.0396508443334236</v>
@@ -9079,7 +9055,7 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.26434490751089523</v>
+        <v>0.26269920073981767</v>
       </c>
       <c r="B204">
         <v>0.93945618127198782</v>
@@ -9123,7 +9099,7 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>-1.2456197365291515</v>
+        <v>-1.2464209002284865</v>
       </c>
       <c r="B205">
         <v>1.1938460614532231</v>
@@ -9167,7 +9143,7 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.89136544505294968</v>
+        <v>0.88997814840301426</v>
       </c>
       <c r="B206">
         <v>0.68428274274275114</v>
@@ -9211,7 +9187,7 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.92672411687908385</v>
+        <v>0.92608957975458817</v>
       </c>
       <c r="B207">
         <v>0.69944955139863685</v>
@@ -9255,7 +9231,7 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.89937235073360189</v>
+        <v>0.89902568386075155</v>
       </c>
       <c r="B208">
         <v>0.7842918474056999</v>
@@ -9299,7 +9275,7 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.6947070052940223</v>
+        <v>0.69276625052100882</v>
       </c>
       <c r="B209">
         <v>0.84697629553931097</v>
@@ -9343,7 +9319,7 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.93179450732807501</v>
+        <v>0.93086961268069235</v>
       </c>
       <c r="B210">
         <v>0.65817306229942718</v>
@@ -9387,7 +9363,7 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>-0.34406456429140414</v>
+        <v>-0.34535204385274615</v>
       </c>
       <c r="B211">
         <v>0.94776577958855379</v>
@@ -9431,7 +9407,7 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.92446226590458425</v>
+        <v>0.92278738251394732</v>
       </c>
       <c r="B212">
         <v>1.1167667879950121</v>
@@ -9475,7 +9451,7 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>-0.96585884485097628</v>
+        <v>-0.96676797259767044</v>
       </c>
       <c r="B213">
         <v>1.0966421654969893</v>
@@ -9519,7 +9495,7 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.87065758325500531</v>
+        <v>0.86999296562749506</v>
       </c>
       <c r="B214">
         <v>0.80033907195232423</v>
@@ -9563,7 +9539,7 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>-1.2140352275891098</v>
+        <v>-1.2147699167139485</v>
       </c>
       <c r="B215">
         <v>1.0533494204556177</v>
@@ -9607,7 +9583,7 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>-0.084858032136011868</v>
+        <v>-0.086199086998863278</v>
       </c>
       <c r="B216">
         <v>0.90269566898583253</v>
@@ -9651,7 +9627,7 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>-1.1935673053419327</v>
+        <v>-1.1943138273084641</v>
       </c>
       <c r="B217">
         <v>0.83776847788213216</v>
@@ -9695,7 +9671,7 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.85719339383775917</v>
+        <v>0.85573611556138773</v>
       </c>
       <c r="B218">
         <v>0.81633016732659669</v>
@@ -9739,7 +9715,7 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.64734011835168137</v>
+        <v>0.64563372898208515</v>
       </c>
       <c r="B219">
         <v>1.1631913948773147</v>
@@ -9783,7 +9759,7 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.90464878736146936</v>
+        <v>0.90267737620539534</v>
       </c>
       <c r="B220">
         <v>0.72458912107637463</v>
@@ -9827,7 +9803,7 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.8344991888778055</v>
+        <v>0.83272738045913475</v>
       </c>
       <c r="B221">
         <v>0.80246074878535589</v>
@@ -9871,7 +9847,7 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.86437356395918741</v>
+        <v>0.86302911439556307</v>
       </c>
       <c r="B222">
         <v>0.61147209521943491</v>
@@ -9915,7 +9891,7 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.8841349151261213</v>
+        <v>0.88311397810267189</v>
       </c>
       <c r="B223">
         <v>0.74311841875999296</v>
@@ -9959,7 +9935,7 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.87445238782438239</v>
+        <v>0.87348373557016779</v>
       </c>
       <c r="B224">
         <v>0.75259634852409363</v>
@@ -10003,7 +9979,7 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>-0.8022159596465871</v>
+        <v>-0.80321857866399504</v>
       </c>
       <c r="B225">
         <v>1.1887759396571986</v>
@@ -10047,7 +10023,7 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.84914925851512035</v>
+        <v>0.84769668772146878</v>
       </c>
       <c r="B226">
         <v>0.83259062157384345</v>
@@ -10091,7 +10067,7 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>-0.1292008124738073</v>
+        <v>-0.13060912785630824</v>
       </c>
       <c r="B227">
         <v>1.0224101655648403</v>
@@ -10135,7 +10111,7 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.47330764877491588</v>
+        <v>0.4715112138719561</v>
       </c>
       <c r="B228">
         <v>0.89332500082073785</v>
@@ -10179,7 +10155,7 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>-0.55700121801760205</v>
+        <v>-0.55813764228904739</v>
       </c>
       <c r="B229">
         <v>0.87363317093023884</v>
@@ -10223,7 +10199,7 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.81640187114007867</v>
+        <v>0.81466559615257006</v>
       </c>
       <c r="B230">
         <v>0.9729378395829319</v>
@@ -10267,7 +10243,7 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>-0.33216136219275766</v>
+        <v>-0.333401703962101</v>
       </c>
       <c r="B231">
         <v>1.0548127506007539</v>
@@ -10311,7 +10287,7 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.84608937350477953</v>
+        <v>0.84472001010045006</v>
       </c>
       <c r="B232">
         <v>0.79162938387843718</v>
@@ -10355,7 +10331,7 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>0.82091702452900983</v>
+        <v>0.81962216647456332</v>
       </c>
       <c r="B233">
         <v>0.77809316360575875</v>
@@ -10399,7 +10375,7 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>-0.44775336272676752</v>
+        <v>-0.44893707220949036</v>
       </c>
       <c r="B234">
         <v>1.0123602904444156</v>
@@ -10443,7 +10419,7 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.50131835169905936</v>
+        <v>0.4995133420185307</v>
       </c>
       <c r="B235">
         <v>1.1386758167923932</v>
@@ -10487,7 +10463,7 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.85635767530210194</v>
+        <v>0.85442087541301448</v>
       </c>
       <c r="B236">
         <v>0.76429465436124733</v>
@@ -10531,7 +10507,7 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>0.73642166143418952</v>
+        <v>0.73474689360112988</v>
       </c>
       <c r="B237">
         <v>0.87214472650684238</v>
@@ -10575,7 +10551,7 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>-0.25100097943758959</v>
+        <v>-0.25230061715313123</v>
       </c>
       <c r="B238">
         <v>1.1393154237813967</v>
@@ -10619,7 +10595,7 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>0.705953292924552</v>
+        <v>0.70419750553729188</v>
       </c>
       <c r="B239">
         <v>0.63132843607965328</v>
@@ -10663,7 +10639,7 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>0.82244548246812754</v>
+        <v>0.82103574105463473</v>
       </c>
       <c r="B240">
         <v>0.77101769358959305</v>
@@ -10707,7 +10683,7 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.6092804846575236</v>
+        <v>0.60734534924783756</v>
       </c>
       <c r="B241">
         <v>0.8961993615150452</v>
@@ -10751,7 +10727,7 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.22586422998294622</v>
+        <v>0.2242603867398745</v>
       </c>
       <c r="B242">
         <v>0.81359865988185831</v>
@@ -10795,7 +10771,7 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>0.80145226654735113</v>
+        <v>0.79974886169255144</v>
       </c>
       <c r="B243">
         <v>0.65705316486366616</v>
@@ -10839,7 +10815,7 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>0.63631484058572463</v>
+        <v>0.63447194932284934</v>
       </c>
       <c r="B244">
         <v>0.69740373586614923</v>
@@ -10883,7 +10859,7 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.75589057597554499</v>
+        <v>0.75424253583363088</v>
       </c>
       <c r="B245">
         <v>0.78505691519150367</v>
@@ -10927,7 +10903,7 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.17294186484818644</v>
+        <v>0.17137944814204603</v>
       </c>
       <c r="B246">
         <v>0.73362430450619298</v>
@@ -10971,7 +10947,7 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>0.50365626504618066</v>
+        <v>0.50186038270366751</v>
       </c>
       <c r="B247">
         <v>1.0647226213897247</v>
@@ -11015,7 +10991,7 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>0.72243806586110004</v>
+        <v>0.72042702423748117</v>
       </c>
       <c r="B248">
         <v>0.86241887604133993</v>
@@ -11059,7 +11035,7 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>0.70017751351166169</v>
+        <v>0.6983320378007164</v>
       </c>
       <c r="B249">
         <v>0.69037732253411066</v>
@@ -11103,7 +11079,7 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>0.5649150075950089</v>
+        <v>0.56299498413897242</v>
       </c>
       <c r="B250">
         <v>0.84670213858286536</v>
@@ -11147,7 +11123,7 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.53418126722187631</v>
+        <v>0.53228004645486315</v>
       </c>
       <c r="B251">
         <v>0.93517026871065545</v>
